--- a/biology/Botanique/Dactyloctenium/Dactyloctenium.xlsx
+++ b/biology/Botanique/Dactyloctenium/Dactyloctenium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dactyloctenium est un genre de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Chloridoideae, originaire des régions tropicales et subtropicales d'Eurasie et d'Australie, qui comprend une douzaine d'espèces. L'espèce-type est Dactyloctenium aegyptium (L.) Willd.
 Ce sont des plantes herbacées annuelles ou vivaces, parfois stolonifères ou rhizomateuses, cespiteuses, aux tiges (chaumes) géniculées, ascendantes ou décombantes, pouvant atteindre 100 cm de long, et aux inflorescences généralement digitées, composées de racèmes spiciformes.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 avril 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 avril 2018) :
 Dactyloctenium aegyptium (L.) Willd. (1809)
 Dactyloctenium aristatum Link (1827)
 Dactyloctenium australe Steud. (1854)
